--- a/docs/StructureDefinition-VAProgressNoteOrganization.xlsx
+++ b/docs/StructureDefinition-VAProgressNoteOrganization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="236">
   <si>
     <t>Path</t>
   </si>
@@ -316,21 +316,21 @@
     <t>Organization.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -339,17 +339,10 @@
     <t>Organization.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -651,9 +644,6 @@
   </si>
   <si>
     <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1889,7 +1879,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1908,15 +1898,17 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -1953,14 +1945,16 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>101</v>
@@ -1984,7 +1978,7 @@
         <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>41</v>
@@ -1999,7 +1993,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2018,16 +2012,16 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2077,7 +2071,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2109,7 +2103,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2132,17 +2126,17 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>41</v>
@@ -2191,7 +2185,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2200,30 +2194,30 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AI11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2246,22 +2240,22 @@
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
@@ -2307,7 +2301,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2325,21 +2319,21 @@
         <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>128</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2362,19 +2356,19 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>41</v>
@@ -2399,14 +2393,14 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="X13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
       </c>
@@ -2423,7 +2417,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2441,28 +2435,28 @@
         <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>42</v>
@@ -2480,19 +2474,19 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2541,7 +2535,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2550,22 +2544,22 @@
         <v>51</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -2573,7 +2567,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2596,19 +2590,19 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2657,7 +2651,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2678,7 +2672,7 @@
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>41</v>
@@ -2689,7 +2683,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2712,19 +2706,19 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2773,7 +2767,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2782,22 +2776,22 @@
         <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AI16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -2805,7 +2799,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2828,19 +2822,19 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -2889,7 +2883,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -2898,22 +2892,22 @@
         <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AI17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -2921,14 +2915,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>42</v>
@@ -2946,17 +2940,17 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3005,7 +2999,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3020,16 +3014,16 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3037,7 +3031,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3060,19 +3054,19 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3121,7 +3115,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3133,7 +3127,7 @@
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>41</v>
@@ -3142,7 +3136,7 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3153,7 +3147,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3176,13 +3170,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3233,7 +3227,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3254,7 +3248,7 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3265,11 +3259,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3288,16 +3282,16 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3347,7 +3341,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3368,7 +3362,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3379,11 +3373,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3402,16 +3396,16 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3461,7 +3455,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3493,7 +3487,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3516,17 +3510,17 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3554,10 +3548,10 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -3575,7 +3569,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3596,7 +3590,7 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -3607,7 +3601,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3630,17 +3624,17 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3689,7 +3683,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3707,10 +3701,10 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -3721,7 +3715,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3744,17 +3738,17 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -3803,7 +3797,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3821,10 +3815,10 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -3835,7 +3829,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3858,17 +3852,17 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -3917,7 +3911,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3935,10 +3929,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -3949,7 +3943,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3972,17 +3966,17 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4031,7 +4025,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4052,7 +4046,7 @@
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
